--- a/data analysis copy.xlsx
+++ b/data analysis copy.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olang/Documents/MATLAB/BE309/CMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shiv/Documents/Classes2017-18/BE309/CMI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -137,21 +134,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -428,22 +425,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -502,8 +500,12 @@
         <f>IF(H2&gt;0,D2,F2)</f>
         <v>-63.691000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>H2-G2</f>
+        <v>-24.904999146000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -533,8 +535,12 @@
         <f>IF(H3&gt;0,D3,F3)</f>
         <v>-27.631</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="0">H3-G3</f>
+        <v>-8.4036299999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -564,8 +570,12 @@
         <f>IF(H4&gt;0,D4,F4)</f>
         <v>-28.413</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-17.682259999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -595,8 +605,12 @@
         <f>IF(H5&gt;0,D5,F5)</f>
         <v>-25.788</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-18.752540000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -626,8 +640,12 @@
         <f>IF(H6&gt;0,D6,F6)</f>
         <v>-31.893000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-17.279999146000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -657,8 +675,12 @@
         <f>IF(H7&gt;0,D7,F7)</f>
         <v>-16.945</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-13.213789999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -688,8 +710,12 @@
         <f>IF(H8&gt;0,D8,F8)</f>
         <v>26.814</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f>I8-E8</f>
+        <v>23.659700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -719,8 +745,12 @@
         <f>IF(H9&gt;0,D9,F9)</f>
         <v>37.405999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" ref="J9:J21" si="1">I9-E9</f>
+        <v>34.850699999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -750,8 +780,12 @@
         <f>IF(H10&gt;0,D10,F10)</f>
         <v>30.577999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>24.1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -781,8 +815,12 @@
         <f>IF(H11&gt;0,D11,F11)</f>
         <v>26.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>22.715400000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -812,8 +850,12 @@
         <f>IF(H12&gt;0,D12,F12)</f>
         <v>24.542999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>20.314799999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -843,8 +885,12 @@
         <f>IF(H13&gt;0,D13,F13)</f>
         <v>25.105</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>17.372900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -874,8 +920,12 @@
         <f>IF(H14&gt;0,D14,F14)</f>
         <v>23.506</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>20.397200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -905,8 +955,12 @@
         <f>IF(H15&gt;0,D15,F15)</f>
         <v>24.082000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>16.8917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -936,8 +990,12 @@
         <f>IF(H16&gt;0,D16,F16)</f>
         <v>26.164999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>21.036099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -967,8 +1025,12 @@
         <f>IF(H17&gt;0,D17,F17)</f>
         <v>24.091000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>20.462300000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -998,8 +1060,12 @@
         <f>IF(H18&gt;0,D18,F18)</f>
         <v>22.501999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>21.97167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1029,8 +1095,12 @@
         <f>IF(H19&gt;0,D19,F19)</f>
         <v>23.370999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>24.4954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1060,8 +1130,12 @@
         <f>IF(H20&gt;0,D20,F20)</f>
         <v>26.088999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>29.3324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1091,8 +1165,12 @@
         <f>IF(H21&gt;0,D21,F21)</f>
         <v>19.728000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>22.282200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1122,8 +1200,12 @@
         <f>IF(H22&gt;0,D22,F22)</f>
         <v>-3.4097</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>I22-G22</f>
+        <v>-0.73450000000000015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1153,8 +1235,12 @@
         <f>IF(H23&gt;0,D23,F23)</f>
         <v>4.4720000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>I23-E23</f>
+        <v>0.74590000000000023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1184,8 +1270,12 @@
         <f>IF(H24&gt;0,D24,F24)</f>
         <v>1.9852000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f>I24-E24</f>
+        <v>3.5196000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1215,8 +1305,12 @@
         <f>IF(H25&gt;0,D25,F25)</f>
         <v>-4.8398000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f>I25-G25</f>
+        <v>-1.9424000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1246,8 +1340,12 @@
         <f>IF(H26&gt;0,D26,F26)</f>
         <v>-8.8147000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" ref="J26:J31" si="2">I26-G26</f>
+        <v>-3.7359999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1277,8 +1375,12 @@
         <f>IF(H27&gt;0,D27,F27)</f>
         <v>-6.3254000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>-1.9424000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1308,8 +1410,12 @@
         <f>IF(H28&gt;0,D28,F28)</f>
         <v>-8.1662999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>-3.8828999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1339,8 +1445,12 @@
         <f>IF(H29&gt;0,D29,F29)</f>
         <v>-9.5175999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-5.0295999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1370,8 +1480,12 @@
         <f>IF(H30&gt;0,D30,F30)</f>
         <v>-16.079000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-5.1530000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1401,8 +1515,12 @@
         <f>IF(H31&gt;0,D31,F31)</f>
         <v>-50.698999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>-6.0589999999999975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1432,8 +1550,12 @@
         <f>IF(H32&gt;0,D32,F32)</f>
         <v>23.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f>I32-E32</f>
+        <v>15.718899999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1463,8 +1585,12 @@
         <f>IF(H33&gt;0,D33,F33)</f>
         <v>26.846</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f>I33-E33</f>
+        <v>19.433900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1494,8 +1620,12 @@
         <f>IF(H34&gt;0,D34,F34)</f>
         <v>-18.940999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1525,8 +1655,12 @@
         <f>IF(H35&gt;0,D35,F35)</f>
         <v>32.034999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f>I35-E35</f>
+        <v>19.451999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1556,8 +1690,12 @@
         <f>IF(H36&gt;0,D36,F36)</f>
         <v>-25.533999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f>I36-G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1587,8 +1725,12 @@
         <f>IF(H37&gt;0,D37,F37)</f>
         <v>38.832000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>I37-E37</f>
+        <v>24.255000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1618,8 +1760,12 @@
         <f>IF(H38&gt;0,D38,F38)</f>
         <v>41.585000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" ref="J38:J45" si="3">I38-E38</f>
+        <v>24.792999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1649,8 +1795,12 @@
         <f>IF(H39&gt;0,D39,F39)</f>
         <v>44.442</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>31.436999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1680,8 +1830,12 @@
         <f>IF(H40&gt;0,D40,F40)</f>
         <v>50.045000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>39.844999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1711,8 +1865,12 @@
         <f>IF(H41&gt;0,D41,F41)</f>
         <v>34.863999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>25.168699999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1742,8 +1900,12 @@
         <f>IF(H42&gt;0,D42,F42)</f>
         <v>26.587</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>26.185649999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1773,8 +1935,12 @@
         <f>IF(H43&gt;0,D43,F43)</f>
         <v>24.42</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>27.0625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1804,8 +1970,12 @@
         <f>IF(H44&gt;0,D44,F44)</f>
         <v>6.5972999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>2.7849999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1835,8 +2005,12 @@
         <f>IF(H45&gt;0,D45,F45)</f>
         <v>5.6230000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>2.7140000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1866,8 +2040,12 @@
         <f>IF(H46&gt;0,D46,F46)</f>
         <v>-5.0296000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f>I46-E46</f>
+        <v>-1.1179000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -1897,8 +2075,12 @@
         <f>IF(H47&gt;0,D47,F47)</f>
         <v>-12.832000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f>I47-G47</f>
+        <v>-8.2707000000000015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -1928,8 +2110,12 @@
         <f>IF(H48&gt;0,D48,F48)</f>
         <v>-9.8122000000000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" ref="J48:J54" si="4">I48-G48</f>
+        <v>-8.0420000000000016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -1959,8 +2145,12 @@
         <f>IF(H49&gt;0,D49,F49)</f>
         <v>-7.2310999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>-3.7427999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -1990,8 +2180,12 @@
         <f>IF(H50&gt;0,D50,F50)</f>
         <v>-10.91</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>-3.7953999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -2021,8 +2215,12 @@
         <f>IF(H51&gt;0,D51,F51)</f>
         <v>-12.192</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>-5.3026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -2052,8 +2250,12 @@
         <f>IF(H52&gt;0,D52,F52)</f>
         <v>-8.0242000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -2083,8 +2285,12 @@
         <f>IF(H53&gt;0,D53,F53)</f>
         <v>-17.986999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>-8.4922999999999984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2114,8 +2320,12 @@
         <f>IF(H54&gt;0,D54,F54)</f>
         <v>-27.606000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>-24.1996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -2145,8 +2355,12 @@
         <f>IF(H55&gt;0,D55,F55)</f>
         <v>13.407999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f>I55-G55</f>
+        <v>11.2652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -2176,8 +2390,12 @@
         <f>IF(H56&gt;0,D56,F56)</f>
         <v>47.247999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f>I56-E56</f>
+        <v>28.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -2207,8 +2425,12 @@
         <f>IF(H57&gt;0,D57,F57)</f>
         <v>37.393999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <f>I57-E57</f>
+        <v>11.841999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -2238,8 +2460,12 @@
         <f>IF(H58&gt;0,D58,F58)</f>
         <v>-22.187000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f>I58-F58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -2269,8 +2495,12 @@
         <f>IF(H59&gt;0,D59,F59)</f>
         <v>-12.648</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <f t="shared" ref="J59:J62" si="5">I59-F59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -2300,8 +2530,12 @@
         <f>IF(H60&gt;0,D60,F60)</f>
         <v>-7.1208</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -2331,8 +2565,12 @@
         <f>IF(H61&gt;0,D61,F61)</f>
         <v>-1.4063000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -2362,8 +2600,12 @@
         <f>IF(H62&gt;0,D62,F62)</f>
         <v>-8.8109999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -2393,8 +2635,12 @@
         <f>IF(H63&gt;0,D63,F63)</f>
         <v>74.745999999999995</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f>I63-E63</f>
+        <v>25.302999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -2424,8 +2670,12 @@
         <f>IF(H64&gt;0,D64,F64)</f>
         <v>0.16081000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f>I64-G64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -2455,8 +2705,12 @@
         <f>IF(H65&gt;0,D65,F65)</f>
         <v>-0.34290999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <f>I65-F65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -2486,8 +2740,12 @@
         <f>IF(H66&gt;0,D66,F66)</f>
         <v>-0.19858000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" ref="J66:J67" si="6">I66-F66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -2517,8 +2775,12 @@
         <f>IF(H67&gt;0,D67,F67)</f>
         <v>-0.44087999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>5</v>
       </c>
@@ -2548,8 +2810,12 @@
         <f>IF(H68&gt;0,D68,F68)</f>
         <v>1.3849</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f>I68-G68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -2579,8 +2845,12 @@
         <f>IF(H69&gt;0,D69,F69)</f>
         <v>5.8354999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" ref="J69:J76" si="7">I69-G69</f>
+        <v>6.0691499999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -2610,8 +2880,12 @@
         <f>IF(H70&gt;0,D70,F70)</f>
         <v>6.53</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>0.48280000000000012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>5</v>
       </c>
@@ -2641,8 +2915,12 @@
         <f>IF(H71&gt;0,D71,F71)</f>
         <v>4.8209999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -2672,8 +2950,12 @@
         <f>IF(H72&gt;0,D72,F72)</f>
         <v>5.7106000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -2703,8 +2985,12 @@
         <f>IF(H73&gt;0,D73,F73)</f>
         <v>87.102000000000004</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>4</v>
       </c>
@@ -2734,8 +3020,12 @@
         <f>IF(H74&gt;0,D74,F74)</f>
         <v>78.042000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -2765,8 +3055,12 @@
         <f>IF(H75&gt;0,D75,F75)</f>
         <v>75.885999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -2796,8 +3090,12 @@
         <f>IF(H76&gt;0,D76,F76)</f>
         <v>64.876000000000005</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -2827,8 +3125,12 @@
         <f>IF(H77&gt;0,D77,F77)</f>
         <v>-17.811</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <f>I77-E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -2858,8 +3160,12 @@
         <f>IF(H78&gt;0,D78,F78)</f>
         <v>26.712</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <f>I78-E78</f>
+        <v>17.952199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -2889,8 +3195,12 @@
         <f>IF(H79&gt;0,D79,F79)</f>
         <v>19.663</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f t="shared" ref="J79:J81" si="8">I79-E79</f>
+        <v>10.5587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2920,8 +3230,12 @@
         <f>IF(H80&gt;0,D80,F80)</f>
         <v>19.712</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>26.592399999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -2951,8 +3265,12 @@
         <f>IF(H81&gt;0,D81,F81)</f>
         <v>9.5779999999999994</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>9.8574599999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -2982,8 +3300,12 @@
         <f>IF(H82&gt;0,D82,F82)</f>
         <v>-2.6993</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <f>I82-E82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -3013,8 +3335,12 @@
         <f>IF(H83&gt;0,D83,F83)</f>
         <v>-49.796999999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <f t="shared" ref="J83:J85" si="9">I83-E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -3044,8 +3370,12 @@
         <f>IF(H84&gt;0,D84,F84)</f>
         <v>-54.844000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -3075,8 +3405,12 @@
         <f>IF(H85&gt;0,D85,F85)</f>
         <v>-38.966000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -3106,8 +3440,12 @@
         <f>IF(H86&gt;0,D86,F86)</f>
         <v>57.744999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <f>I86-E86</f>
+        <v>44.052999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -3137,8 +3475,12 @@
         <f>IF(H87&gt;0,D87,F87)</f>
         <v>-15.548</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <f>I87-G87</f>
+        <v>-7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>5</v>
       </c>
@@ -3168,8 +3510,11 @@
         <f>IF(H88&gt;0,D88,F88)</f>
         <v>-22.599</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>5</v>
       </c>
@@ -3199,8 +3544,12 @@
         <f>IF(H89&gt;0,D89,F89)</f>
         <v>22.329000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <f>I89-E89</f>
+        <v>10.733000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>5</v>
       </c>
@@ -3230,8 +3579,12 @@
         <f>IF(H90&gt;0,D90,F90)</f>
         <v>23.797999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <f t="shared" ref="J90:J122" si="10">I90-E90</f>
+        <v>10.880999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>5</v>
       </c>
@@ -3261,8 +3614,12 @@
         <f>IF(H91&gt;0,D91,F91)</f>
         <v>74.155000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>18.630000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -3285,15 +3642,19 @@
         <v>-0.40921999999999997</v>
       </c>
       <c r="H92">
-        <f>D92-ABS(F92)</f>
+        <f t="shared" ref="H66:H97" si="11">D92-ABS(F92)</f>
         <v>-0.20675999999999997</v>
       </c>
       <c r="I92">
-        <f>IF(H92&gt;0,D92,F92)</f>
+        <f t="shared" ref="I66:I97" si="12">IF(H92&gt;0,D92,F92)</f>
         <v>-0.40921999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>6</v>
       </c>
@@ -3316,15 +3677,19 @@
         <v>-7.6673999999999998</v>
       </c>
       <c r="H93">
-        <f>D93-ABS(F93)</f>
+        <f t="shared" si="11"/>
         <v>-11.462</v>
       </c>
       <c r="I93">
-        <f>IF(H93&gt;0,D93,F93)</f>
+        <f t="shared" si="12"/>
         <v>-11.462</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -3347,15 +3712,19 @@
         <v>2.169</v>
       </c>
       <c r="H94">
-        <f>D94-ABS(F94)</f>
+        <f t="shared" si="11"/>
         <v>4.7476000000000003</v>
       </c>
       <c r="I94">
-        <f>IF(H94&gt;0,D94,F94)</f>
+        <f t="shared" si="12"/>
         <v>6.5712000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <f t="shared" si="10"/>
+        <v>8.3948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -3378,15 +3747,19 @@
         <v>-38.052</v>
       </c>
       <c r="H95">
-        <f>D95-ABS(F95)</f>
+        <f t="shared" si="11"/>
         <v>-44.303999146000002</v>
       </c>
       <c r="I95">
-        <f>IF(H95&gt;0,D95,F95)</f>
+        <f t="shared" si="12"/>
         <v>-44.304000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>6</v>
       </c>
@@ -3409,15 +3782,19 @@
         <v>-59.058999999999997</v>
       </c>
       <c r="H96">
-        <f>D96-ABS(F96)</f>
+        <f t="shared" si="11"/>
         <v>-31.75</v>
       </c>
       <c r="I96">
-        <f>IF(H96&gt;0,D96,F96)</f>
+        <f t="shared" si="12"/>
         <v>-74.241</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -3440,15 +3817,19 @@
         <v>0.34066999999999997</v>
       </c>
       <c r="H97">
-        <f>D97-ABS(F97)</f>
+        <f t="shared" si="11"/>
         <v>0.28959599999999996</v>
       </c>
       <c r="I97">
-        <f>IF(H97&gt;0,D97,F97)</f>
+        <f t="shared" si="12"/>
         <v>0.34066999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>6</v>
       </c>
@@ -3471,15 +3852,19 @@
         <v>-0.60285</v>
       </c>
       <c r="H98">
-        <f>D98-ABS(F98)</f>
+        <f t="shared" ref="H98:H122" si="13">D98-ABS(F98)</f>
         <v>-20.091999999999999</v>
       </c>
       <c r="I98">
-        <f>IF(H98&gt;0,D98,F98)</f>
+        <f t="shared" ref="I98:I129" si="14">IF(H98&gt;0,D98,F98)</f>
         <v>-20.091999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>6</v>
       </c>
@@ -3502,15 +3887,19 @@
         <v>-1.8502000000000001</v>
       </c>
       <c r="H99">
-        <f>D99-ABS(F99)</f>
+        <f t="shared" si="13"/>
         <v>-7.1178987899999999</v>
       </c>
       <c r="I99">
-        <f>IF(H99&gt;0,D99,F99)</f>
+        <f t="shared" si="14"/>
         <v>-7.1178999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>6</v>
       </c>
@@ -3533,15 +3922,19 @@
         <v>-0.40695999999999999</v>
       </c>
       <c r="H100">
-        <f>D100-ABS(F100)</f>
+        <f t="shared" si="13"/>
         <v>-5.2366999999999999</v>
       </c>
       <c r="I100">
-        <f>IF(H100&gt;0,D100,F100)</f>
+        <f t="shared" si="14"/>
         <v>-5.2366999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>6</v>
       </c>
@@ -3564,15 +3957,19 @@
         <v>43.247</v>
       </c>
       <c r="H101">
-        <f>D101-ABS(F101)</f>
+        <f t="shared" si="13"/>
         <v>43.247</v>
       </c>
       <c r="I101">
-        <f>IF(H101&gt;0,D101,F101)</f>
+        <f t="shared" si="14"/>
         <v>43.247</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <f t="shared" si="10"/>
+        <v>41.855600000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -3595,15 +3992,19 @@
         <v>63.435000000000002</v>
       </c>
       <c r="H102">
-        <f>D102-ABS(F102)</f>
+        <f t="shared" si="13"/>
         <v>63.434998790000002</v>
       </c>
       <c r="I102">
-        <f>IF(H102&gt;0,D102,F102)</f>
+        <f t="shared" si="14"/>
         <v>63.435000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <f t="shared" si="10"/>
+        <v>10.681000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -3626,15 +4027,19 @@
         <v>17.471</v>
       </c>
       <c r="H103">
-        <f>D103-ABS(F103)</f>
+        <f t="shared" si="13"/>
         <v>17.204519999999999</v>
       </c>
       <c r="I103">
-        <f>IF(H103&gt;0,D103,F103)</f>
+        <f t="shared" si="14"/>
         <v>17.471</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <f t="shared" si="10"/>
+        <v>15.595800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>6</v>
       </c>
@@ -3657,15 +4062,19 @@
         <v>7.6348000000000003</v>
       </c>
       <c r="H104">
-        <f>D104-ABS(F104)</f>
+        <f t="shared" si="13"/>
         <v>7.4138200000000003</v>
       </c>
       <c r="I104">
-        <f>IF(H104&gt;0,D104,F104)</f>
+        <f t="shared" si="14"/>
         <v>7.6348000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <f t="shared" si="10"/>
+        <v>0.4148000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3688,15 +4097,19 @@
         <v>42.09</v>
       </c>
       <c r="H105">
-        <f>D105-ABS(F105)</f>
+        <f t="shared" si="13"/>
         <v>8.3589999999999947</v>
       </c>
       <c r="I105">
-        <f>IF(H105&gt;0,D105,F105)</f>
+        <f t="shared" si="14"/>
         <v>44.662999999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <f t="shared" si="10"/>
+        <v>80.966999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>6</v>
       </c>
@@ -3719,15 +4132,19 @@
         <v>-1.1567000000000001</v>
       </c>
       <c r="H106">
-        <f>D106-ABS(F106)</f>
+        <f t="shared" si="13"/>
         <v>-1.8078540000000001</v>
       </c>
       <c r="I106">
-        <f>IF(H106&gt;0,D106,F106)</f>
+        <f t="shared" si="14"/>
         <v>-1.8507</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -3750,15 +4167,19 @@
         <v>1.7914000000000001</v>
       </c>
       <c r="H107">
-        <f>D107-ABS(F107)</f>
+        <f t="shared" si="13"/>
         <v>10.637599999999999</v>
       </c>
       <c r="I107">
-        <f>IF(H107&gt;0,D107,F107)</f>
+        <f t="shared" si="14"/>
         <v>11.69</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <f t="shared" si="10"/>
+        <v>12.7424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -3781,15 +4202,19 @@
         <v>0.73197999999999996</v>
       </c>
       <c r="H108">
-        <f>D108-ABS(F108)</f>
+        <f t="shared" si="13"/>
         <v>0.73197914599999991</v>
       </c>
       <c r="I108">
-        <f>IF(H108&gt;0,D108,F108)</f>
+        <f t="shared" si="14"/>
         <v>0.73197999999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -3812,15 +4237,19 @@
         <v>-0.21779999999999999</v>
       </c>
       <c r="H109">
-        <f>D109-ABS(F109)</f>
+        <f t="shared" si="13"/>
         <v>-3.2893987899999999</v>
       </c>
       <c r="I109">
-        <f>IF(H109&gt;0,D109,F109)</f>
+        <f t="shared" si="14"/>
         <v>-3.2894000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -3843,15 +4272,19 @@
         <v>-0.18975</v>
       </c>
       <c r="H110">
-        <f>D110-ABS(F110)</f>
+        <f t="shared" si="13"/>
         <v>-2.5594799999999998</v>
       </c>
       <c r="I110">
-        <f>IF(H110&gt;0,D110,F110)</f>
+        <f t="shared" si="14"/>
         <v>-2.7643</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -3874,15 +4307,19 @@
         <v>-0.57994999999999997</v>
       </c>
       <c r="H111">
-        <f>D111-ABS(F111)</f>
+        <f t="shared" si="13"/>
         <v>-2.7094999999999998</v>
       </c>
       <c r="I111">
-        <f>IF(H111&gt;0,D111,F111)</f>
+        <f t="shared" si="14"/>
         <v>-2.7094999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>6</v>
       </c>
@@ -3905,15 +4342,19 @@
         <v>0.59023000000000003</v>
       </c>
       <c r="H112">
-        <f>D112-ABS(F112)</f>
+        <f t="shared" si="13"/>
         <v>-0.56976999999999989</v>
       </c>
       <c r="I112">
-        <f>IF(H112&gt;0,D112,F112)</f>
+        <f t="shared" si="14"/>
         <v>-1.1599999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <f t="shared" si="10"/>
+        <v>-0.93066999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -3936,15 +4377,19 @@
         <v>0.40061999999999998</v>
       </c>
       <c r="H113">
-        <f>D113-ABS(F113)</f>
+        <f t="shared" si="13"/>
         <v>-0.81468000000000007</v>
       </c>
       <c r="I113">
-        <f>IF(H113&gt;0,D113,F113)</f>
+        <f t="shared" si="14"/>
         <v>-1.2153</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <f t="shared" si="10"/>
+        <v>-1.2096579000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>7</v>
       </c>
@@ -3967,15 +4412,19 @@
         <v>0.41036</v>
       </c>
       <c r="H114">
-        <f>D114-ABS(F114)</f>
+        <f t="shared" si="13"/>
         <v>-6.7281999999999993</v>
       </c>
       <c r="I114">
-        <f>IF(H114&gt;0,D114,F114)</f>
+        <f t="shared" si="14"/>
         <v>-8.5793999999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>7</v>
       </c>
@@ -3998,15 +4447,19 @@
         <v>-19.766999999999999</v>
       </c>
       <c r="H115">
-        <f>D115-ABS(F115)</f>
+        <f t="shared" si="13"/>
         <v>-69.663998790000008</v>
       </c>
       <c r="I115">
-        <f>IF(H115&gt;0,D115,F115)</f>
+        <f t="shared" si="14"/>
         <v>-69.664000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>7</v>
       </c>
@@ -4029,15 +4482,19 @@
         <v>-39.694000000000003</v>
       </c>
       <c r="H116">
-        <f>D116-ABS(F116)</f>
+        <f t="shared" si="13"/>
         <v>-39.694000000000003</v>
       </c>
       <c r="I116">
-        <f>IF(H116&gt;0,D116,F116)</f>
+        <f t="shared" si="14"/>
         <v>-39.694000000000003</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>7</v>
       </c>
@@ -4060,15 +4517,19 @@
         <v>-0.66005000000000003</v>
       </c>
       <c r="H117">
-        <f>D117-ABS(F117)</f>
+        <f t="shared" si="13"/>
         <v>-0.44079000000000002</v>
       </c>
       <c r="I117">
-        <f>IF(H117&gt;0,D117,F117)</f>
+        <f t="shared" si="14"/>
         <v>-0.82272000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>7</v>
       </c>
@@ -4091,15 +4552,19 @@
         <v>-0.60646999999999995</v>
       </c>
       <c r="H118">
-        <f>D118-ABS(F118)</f>
+        <f t="shared" si="13"/>
         <v>-0.42344000000000004</v>
       </c>
       <c r="I118">
-        <f>IF(H118&gt;0,D118,F118)</f>
+        <f t="shared" si="14"/>
         <v>-0.77280000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>7</v>
       </c>
@@ -4122,15 +4587,19 @@
         <v>0.44675999999999999</v>
       </c>
       <c r="H119">
-        <f>D119-ABS(F119)</f>
+        <f t="shared" si="13"/>
         <v>0.44675999999999999</v>
       </c>
       <c r="I119">
-        <f>IF(H119&gt;0,D119,F119)</f>
+        <f t="shared" si="14"/>
         <v>0.44675999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <f t="shared" si="10"/>
+        <v>0.41899799999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>7</v>
       </c>
@@ -4153,15 +4622,19 @@
         <v>-1.8516999999999999</v>
       </c>
       <c r="H120">
-        <f>D120-ABS(F120)</f>
+        <f t="shared" si="13"/>
         <v>-1.5908099999999998</v>
       </c>
       <c r="I120">
-        <f>IF(H120&gt;0,D120,F120)</f>
+        <f t="shared" si="14"/>
         <v>-1.8516999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>7</v>
       </c>
@@ -4184,15 +4657,19 @@
         <v>2.504</v>
       </c>
       <c r="H121">
-        <f>D121-ABS(F121)</f>
+        <f t="shared" si="13"/>
         <v>2.3814000000000002</v>
       </c>
       <c r="I121">
-        <f>IF(H121&gt;0,D121,F121)</f>
+        <f t="shared" si="14"/>
         <v>2.504</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <f t="shared" si="10"/>
+        <v>0.73930000000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>7</v>
       </c>
@@ -4215,23 +4692,27 @@
         <v>19.73</v>
       </c>
       <c r="H122">
-        <f>D122-ABS(F122)</f>
+        <f t="shared" si="13"/>
         <v>19.465990000000001</v>
       </c>
       <c r="I122">
-        <f>IF(H122&gt;0,D122,F122)</f>
+        <f t="shared" si="14"/>
         <v>19.73</v>
       </c>
+      <c r="J122">
+        <f t="shared" si="10"/>
+        <v>2.0289999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A63:I91">
+  <sortState ref="A2:I91">
     <sortCondition ref="C1"/>
   </sortState>
   <conditionalFormatting sqref="H2:H122">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
